--- a/datasets/player-stats-orig.xlsx
+++ b/datasets/player-stats-orig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclai\Documents\GitHub\DATA-70500-working-with-data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1AC08FD-6A22-43B1-8CEE-A622C5C7324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE37539-D142-4063-9B1B-EFDFF9240793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Player</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Ray Dandridge</t>
+  </si>
+  <si>
+    <t>Ted Radcliffe</t>
+  </si>
+  <si>
+    <t>C/P</t>
+  </si>
+  <si>
+    <t>Turkey Stearnes</t>
   </si>
 </sst>
 </file>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,6 +1181,76 @@
         <v>21</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>1469</v>
+      </c>
+      <c r="D21">
+        <v>177</v>
+      </c>
+      <c r="E21">
+        <v>395</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>209</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>4016</v>
+      </c>
+      <c r="D22">
+        <v>968</v>
+      </c>
+      <c r="E22">
+        <v>1398</v>
+      </c>
+      <c r="F22">
+        <v>199</v>
+      </c>
+      <c r="G22">
+        <v>1065</v>
+      </c>
+      <c r="H22">
+        <v>143</v>
+      </c>
+      <c r="I22">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datasets/player-stats-orig.xlsx
+++ b/datasets/player-stats-orig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclai\Documents\GitHub\DATA-70500-working-with-data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE37539-D142-4063-9B1B-EFDFF9240793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AF849A-C6F0-44A7-9501-C956BBA96AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>Player</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Bullet Rogan</t>
   </si>
   <si>
-    <t>Multiple</t>
-  </si>
-  <si>
     <t>HOF</t>
   </si>
   <si>
@@ -151,6 +148,18 @@
   </si>
   <si>
     <t>Turkey Stearnes</t>
+  </si>
+  <si>
+    <t>FB/O</t>
+  </si>
+  <si>
+    <t>P/I</t>
+  </si>
+  <si>
+    <t>SS/SB/O</t>
+  </si>
+  <si>
+    <t>P/O</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,10 +519,10 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -545,10 +554,10 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -580,10 +589,10 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -615,10 +624,10 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -626,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>2201</v>
@@ -650,10 +659,10 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -685,18 +694,18 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
       <c r="C7">
         <v>2438</v>
@@ -720,18 +729,18 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
       </c>
       <c r="C8">
         <v>5031</v>
@@ -755,18 +764,18 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
       </c>
       <c r="C9">
         <v>3264</v>
@@ -790,15 +799,15 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -825,18 +834,18 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>540</v>
@@ -860,18 +869,18 @@
         <v>0.309</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
       </c>
       <c r="C12">
         <v>1135</v>
@@ -895,18 +904,18 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1166</v>
@@ -930,10 +939,10 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -965,18 +974,18 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>1756</v>
@@ -1000,18 +1009,18 @@
         <v>0.311</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
       </c>
       <c r="C16">
         <v>1048</v>
@@ -1035,18 +1044,18 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>3497</v>
@@ -1070,18 +1079,18 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>5117</v>
@@ -1105,18 +1114,18 @@
         <v>0.35</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>2564</v>
@@ -1140,18 +1149,18 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>932</v>
@@ -1175,18 +1184,18 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
       </c>
       <c r="C21">
         <v>1469</v>
@@ -1210,18 +1219,18 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>4016</v>
@@ -1245,10 +1254,10 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
